--- a/Aimac/1.5KPS/Clist.xlsx
+++ b/Aimac/1.5KPS/Clist.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Powersupply\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Powersupply\PCB\PCB\Aimac\1.5KPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" tabRatio="199"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" tabRatio="199" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PCB" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>S.No</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>1K ohm, 0.25W, MFR</t>
+  </si>
+  <si>
+    <t>PCB VERSION -1 correction</t>
+  </si>
+  <si>
+    <t>Resistor pad size reduce</t>
+  </si>
+  <si>
+    <t>Resistor pad gap reduce</t>
+  </si>
+  <si>
+    <t>cap pad size to 6mm</t>
+  </si>
+  <si>
+    <t>New CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12V power pin and DIP RMC gap increse </t>
+  </si>
+  <si>
+    <t>NTC pad size increse</t>
+  </si>
+  <si>
+    <t>NTC pad need to redesign( both pin not in stright line)</t>
   </si>
 </sst>
 </file>
@@ -278,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,6 +314,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,19 +670,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.0546875" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.27734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="97.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="97.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -670,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -687,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -704,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -721,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -738,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -755,7 +784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -772,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -789,7 +818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -806,7 +835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -823,7 +852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -840,7 +869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -857,7 +886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>12</v>
       </c>
@@ -874,7 +903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13</v>
       </c>
@@ -888,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>14</v>
       </c>
@@ -902,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>15</v>
       </c>
@@ -916,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>16</v>
       </c>
@@ -930,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>17</v>
       </c>
@@ -944,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>18</v>
       </c>
@@ -958,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>19</v>
       </c>
@@ -972,7 +1001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20</v>
       </c>
@@ -986,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1000,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -1014,37 +1043,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>47</v>
       </c>
@@ -1068,14 +1097,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A7:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="8"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1089,7 +1193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Aimac/1.5KPS/Clist.xlsx
+++ b/Aimac/1.5KPS/Clist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>S.No</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>NTC pad need to redesign( both pin not in stright line)</t>
+  </si>
+  <si>
+    <t>Clean copper pour for un connected parts.</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1103,7 @@
   <dimension ref="A7:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,6 +1178,9 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
